--- a/public/import/weekly_template weekly.xlsx
+++ b/public/import/weekly_template weekly.xlsx
@@ -55,7 +55,7 @@
     <t>Check ATK gudang</t>
   </si>
   <si>
-    <t>24</t>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
